--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04670566666666667</v>
+        <v>0.030141</v>
       </c>
       <c r="H2">
-        <v>0.140117</v>
+        <v>0.090423</v>
       </c>
       <c r="I2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="J2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N2">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003216245618000001</v>
+        <v>0.001996791015</v>
       </c>
       <c r="R2">
-        <v>0.02894621056200001</v>
+        <v>0.017971119135</v>
       </c>
       <c r="S2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="T2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>0.027635</v>
       </c>
       <c r="H3">
-        <v>0.08290499999999999</v>
+        <v>0.08290500000000001</v>
       </c>
       <c r="I3">
-        <v>0.2439523188785343</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="J3">
-        <v>0.2439523188785344</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N3">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.00190300137</v>
+        <v>0.001830772691666667</v>
       </c>
       <c r="R3">
-        <v>0.01712701233</v>
+        <v>0.016476954225</v>
       </c>
       <c r="S3">
-        <v>0.2439523188785343</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="T3">
-        <v>0.2439523188785344</v>
+        <v>0.2189257704190763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03893966666666667</v>
+        <v>0.068454</v>
       </c>
       <c r="H4">
-        <v>0.116819</v>
+        <v>0.205362</v>
       </c>
       <c r="I4">
-        <v>0.3437460459450155</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="J4">
-        <v>0.3437460459450155</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N4">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002681463326000001</v>
+        <v>0.00453496341</v>
       </c>
       <c r="R4">
-        <v>0.02413316993400001</v>
+        <v>0.04081467069</v>
       </c>
       <c r="S4">
-        <v>0.3437460459450155</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="T4">
-        <v>0.3437460459450155</v>
+        <v>0.5422958092371069</v>
       </c>
     </row>
   </sheetData>
